--- a/app/order-api/public/templates/excel/import-products.xlsx
+++ b/app/order-api/public/templates/excel/import-products.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\Order\order\app\order-api\public\templates\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66E2F05D-5C12-4AC2-868B-CC31781627C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D68828A6-83BF-49BC-B42A-8AEC66BED78F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3795" yWindow="-15195" windowWidth="21600" windowHeight="11775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Import sản phẩm" sheetId="1" r:id="rId1"/>
@@ -20,15 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>Stt</t>
   </si>
   <si>
     <t>Tên sản phẩm</t>
-  </si>
-  <si>
-    <t>Nhóm hàng</t>
   </si>
   <si>
     <t>Mô tả</t>
@@ -56,6 +53,36 @@
   </si>
   <si>
     <t>Giá kích thước 3</t>
+  </si>
+  <si>
+    <t>Nhóm hàng (Đồ ăn, nước uống,…)</t>
+  </si>
+  <si>
+    <t>Cà phê</t>
+  </si>
+  <si>
+    <t>Nước uống</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>Bún bò</t>
+  </si>
+  <si>
+    <t>Đồ ăn</t>
+  </si>
+  <si>
+    <t>Cà phê thượng hạng</t>
+  </si>
+  <si>
+    <t>Thịt bò tuyển chọn</t>
   </si>
 </sst>
 </file>
@@ -382,7 +409,7 @@
   <dimension ref="A1:AC1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F7:F8"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -403,34 +430,34 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
@@ -450,19 +477,39 @@
       <c r="AB1" s="1"/>
       <c r="AC1" s="1"/>
     </row>
-    <row r="2" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
+    <row r="2" spans="1:29" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
+      <c r="G2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="4">
+        <v>20000</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="4">
+        <v>25000</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" s="4">
+        <v>30000</v>
+      </c>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
@@ -481,19 +528,39 @@
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
     </row>
-    <row r="3" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
+    <row r="3" spans="1:29" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
+      <c r="G3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="4">
+        <v>40000</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="4">
+        <v>50000</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" s="4">
+        <v>60000</v>
+      </c>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>

--- a/app/order-api/public/templates/excel/import-products.xlsx
+++ b/app/order-api/public/templates/excel/import-products.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\Order\order\app\order-api\public\templates\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D68828A6-83BF-49BC-B42A-8AEC66BED78F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAD24461-BF91-452C-84BF-F0DF5CE7592A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3795" yWindow="-15195" windowWidth="21600" windowHeight="11775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Import sản phẩm" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
   <si>
     <t>Stt</t>
   </si>
@@ -83,6 +83,12 @@
   </si>
   <si>
     <t>Thịt bò tuyển chọn</t>
+  </si>
+  <si>
+    <t>Là sản phẩm mới</t>
+  </si>
+  <si>
+    <t>Là sản phẩm bán chạy</t>
   </si>
 </sst>
 </file>
@@ -408,18 +414,18 @@
   </sheetPr>
   <dimension ref="A1:AC1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.6640625" style="2"/>
     <col min="2" max="2" width="16.33203125" style="2" customWidth="1"/>
-    <col min="3" max="4" width="12.6640625" style="2"/>
-    <col min="5" max="5" width="26.33203125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="24.44140625" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="12.6640625" style="2"/>
+    <col min="3" max="6" width="12.6640625" style="2"/>
+    <col min="7" max="7" width="26.33203125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="24.44140625" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="12.6640625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="39" customHeight="1" x14ac:dyDescent="0.25">
@@ -436,31 +442,35 @@
         <v>2</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
@@ -490,28 +500,30 @@
       <c r="D2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="4" t="s">
+      <c r="E2" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" s="4"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="4">
+      <c r="J2" s="4">
         <v>20000</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="4">
+      <c r="L2" s="4">
         <v>25000</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="M2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="4">
+      <c r="N2" s="4">
         <v>30000</v>
       </c>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
@@ -541,28 +553,30 @@
       <c r="D3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="4" t="s">
+      <c r="E3" s="6"/>
+      <c r="F3" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="4">
+      <c r="J3" s="4">
         <v>40000</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="K3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="4">
+      <c r="L3" s="4">
         <v>50000</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="M3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="4">
+      <c r="N3" s="4">
         <v>60000</v>
       </c>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
@@ -584,16 +598,16 @@
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
@@ -615,16 +629,16 @@
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
+      <c r="E5" s="4"/>
       <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
+      <c r="G5" s="6"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
@@ -654,8 +668,8 @@
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
@@ -685,8 +699,8 @@
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
@@ -716,8 +730,8 @@
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
@@ -747,8 +761,8 @@
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
@@ -778,8 +792,8 @@
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
@@ -809,8 +823,8 @@
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
@@ -840,8 +854,8 @@
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
@@ -871,8 +885,8 @@
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
@@ -902,8 +916,8 @@
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
@@ -933,8 +947,8 @@
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
@@ -964,8 +978,8 @@
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
@@ -995,8 +1009,8 @@
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
@@ -1026,8 +1040,8 @@
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
@@ -1057,8 +1071,8 @@
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
@@ -1088,8 +1102,8 @@
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
@@ -1119,8 +1133,8 @@
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
